--- a/recursos/cores.xlsx
+++ b/recursos/cores.xlsx
@@ -72,16 +72,16 @@
     <t>muito escuro</t>
   </si>
   <si>
-    <t>escuríssimo</t>
-  </si>
-  <si>
     <t>super escuro</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
     <t>https://mdigi.tools/color-shades/</t>
+  </si>
+  <si>
+    <t>preto</t>
+  </si>
+  <si>
+    <t>médio</t>
   </si>
 </sst>
 </file>
@@ -112,7 +112,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,6 +164,78 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF404040"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0D0D0D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF262626"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4D0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE5E5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF4D4D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF1A1A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE60000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB30000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1A0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -181,7 +253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -192,6 +264,18 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -201,14 +285,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF404040"/>
-      <color rgb="FF595959"/>
-      <color rgb="FF737373"/>
-      <color rgb="FF808080"/>
-      <color rgb="FF8C8C8C"/>
-      <color rgb="FFA6A6A6"/>
-      <color rgb="FFD9D9D9"/>
-      <color rgb="FFF2F2F2"/>
+      <color rgb="FF1A0000"/>
+      <color rgb="FF4D0000"/>
+      <color rgb="FF800000"/>
+      <color rgb="FFB30000"/>
+      <color rgb="FFE60000"/>
+      <color rgb="FFFF1A1A"/>
+      <color rgb="FFFF4D4D"/>
+      <color rgb="FFFF8080"/>
+      <color rgb="FFFFE5E5"/>
+      <color rgb="FFFF0000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -506,14 +592,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
@@ -523,10 +610,9 @@
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -543,7 +629,7 @@
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
         <v>15</v>
@@ -555,13 +641,10 @@
         <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,7 +653,7 @@
         <v>cinza esbranquiçado</v>
       </c>
       <c r="C2" s="3" t="str">
-        <f t="shared" ref="C2:K11" si="0">$A2&amp;" "&amp;C$1</f>
+        <f t="shared" ref="C2:J11" si="0">$A2&amp;" "&amp;C$1</f>
         <v>cinza desbotado</v>
       </c>
       <c r="D2" s="4" t="str">
@@ -583,7 +666,7 @@
       </c>
       <c r="F2" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>cinza normal</v>
+        <v>cinza médio</v>
       </c>
       <c r="G2" s="7" t="str">
         <f t="shared" si="0"/>
@@ -593,65 +676,56 @@
         <f t="shared" si="0"/>
         <v>cinza muito escuro</v>
       </c>
-      <c r="I2" s="8" t="str">
+      <c r="I2" s="11" t="str">
         <f t="shared" si="0"/>
         <v>cinza bem escuro</v>
       </c>
-      <c r="J2" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>cinza super escuro</v>
-      </c>
-      <c r="K2" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>cinza escuríssimo</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="J2" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="str">
-        <f t="shared" ref="B3:K11" si="1">$A3&amp;" "&amp;B$1</f>
+      <c r="B3" s="14" t="str">
+        <f t="shared" ref="B3:B11" si="1">$A3&amp;" "&amp;B$1</f>
         <v>vermelho esbranquiçado</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3" s="15" t="str">
         <f t="shared" si="0"/>
         <v>vermelho desbotado</v>
       </c>
-      <c r="D3" t="str">
+      <c r="D3" s="16" t="str">
         <f t="shared" si="0"/>
         <v>vermelho muito claro</v>
       </c>
-      <c r="E3" t="str">
+      <c r="E3" s="17" t="str">
         <f t="shared" si="0"/>
         <v>vermelho claro</v>
       </c>
-      <c r="F3" t="str">
-        <f t="shared" si="0"/>
-        <v>vermelho normal</v>
-      </c>
-      <c r="G3" t="str">
+      <c r="F3" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>vermelho médio</v>
+      </c>
+      <c r="G3" s="19" t="str">
         <f t="shared" si="0"/>
         <v>vermelho escuro</v>
       </c>
-      <c r="H3" s="8" t="str">
+      <c r="H3" s="20" t="str">
         <f t="shared" si="0"/>
         <v>vermelho muito escuro</v>
       </c>
-      <c r="I3" s="8" t="str">
+      <c r="I3" s="12" t="str">
         <f t="shared" si="0"/>
         <v>vermelho bem escuro</v>
       </c>
-      <c r="J3" s="8" t="str">
+      <c r="J3" s="21" t="str">
         <f t="shared" si="0"/>
         <v>vermelho super escuro</v>
       </c>
-      <c r="K3" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>vermelho escuríssimo</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -673,7 +747,7 @@
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
-        <v>laranja normal</v>
+        <v>laranja médio</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
@@ -691,12 +765,8 @@
         <f t="shared" si="0"/>
         <v>laranja super escuro</v>
       </c>
-      <c r="K4" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>laranja escuríssimo</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -718,7 +788,7 @@
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>amarelo normal</v>
+        <v>amarelo médio</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
@@ -736,12 +806,8 @@
         <f t="shared" si="0"/>
         <v>amarelo super escuro</v>
       </c>
-      <c r="K5" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>amarelo escuríssimo</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -763,7 +829,7 @@
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>marrom normal</v>
+        <v>marrom médio</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
@@ -781,12 +847,8 @@
         <f t="shared" si="0"/>
         <v>marrom super escuro</v>
       </c>
-      <c r="K6" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>marrom escuríssimo</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -808,7 +870,7 @@
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>verde normal</v>
+        <v>verde médio</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
@@ -826,12 +888,8 @@
         <f t="shared" si="0"/>
         <v>verde super escuro</v>
       </c>
-      <c r="K7" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>verde escuríssimo</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -853,7 +911,7 @@
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>azul normal</v>
+        <v>azul médio</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
@@ -871,12 +929,8 @@
         <f t="shared" si="0"/>
         <v>azul super escuro</v>
       </c>
-      <c r="K8" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>azul escuríssimo</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -898,7 +952,7 @@
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>rosa normal</v>
+        <v>rosa médio</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
@@ -916,12 +970,8 @@
         <f t="shared" si="0"/>
         <v>rosa super escuro</v>
       </c>
-      <c r="K9" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>rosa escuríssimo</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -943,7 +993,7 @@
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>roxo normal</v>
+        <v>roxo médio</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
@@ -961,12 +1011,8 @@
         <f t="shared" si="0"/>
         <v>roxo super escuro</v>
       </c>
-      <c r="K10" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>roxo escuríssimo</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -988,7 +1034,7 @@
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>branco normal</v>
+        <v>branco médio</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
@@ -1006,14 +1052,10 @@
         <f t="shared" si="0"/>
         <v>branco super escuro</v>
       </c>
-      <c r="K11" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>branco escuríssimo</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/recursos/cores.xlsx
+++ b/recursos/cores.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>cinza</t>
   </si>
@@ -39,27 +39,15 @@
     <t>azul</t>
   </si>
   <si>
-    <t>rosa</t>
-  </si>
-  <si>
     <t>roxo</t>
   </si>
   <si>
-    <t>branco</t>
-  </si>
-  <si>
     <t>Cor/tom</t>
   </si>
   <si>
     <t>desbotado</t>
   </si>
   <si>
-    <t>esbranquiçado</t>
-  </si>
-  <si>
-    <t>muito claro</t>
-  </si>
-  <si>
     <t>claro</t>
   </si>
   <si>
@@ -69,26 +57,32 @@
     <t>bem escuro</t>
   </si>
   <si>
-    <t>muito escuro</t>
-  </si>
-  <si>
-    <t>super escuro</t>
-  </si>
-  <si>
     <t>https://mdigi.tools/color-shades/</t>
   </si>
   <si>
-    <t>preto</t>
-  </si>
-  <si>
     <t>médio</t>
+  </si>
+  <si>
+    <t>meio escuro</t>
+  </si>
+  <si>
+    <t>quase preto</t>
+  </si>
+  <si>
+    <t>bem claro</t>
+  </si>
+  <si>
+    <t>rosa choque</t>
+  </si>
+  <si>
+    <t>quase branco</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,8 +105,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFE5F2FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="91">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -236,6 +237,420 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF1A0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5FFE5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB3FFB3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF80FF80"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1AFF1A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00E600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B300"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF004D00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF001A00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFE5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFB3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF4D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF80"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF1A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2B300"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7F8000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4C4D00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF191A00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F3EF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE3DACF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDA98E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAC916E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF917754"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF715D42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF51422F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF30281C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF100D09"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4D3A17"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF2F00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEAE5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC1B3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9780"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6D4D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF2A00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB32100"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF802100"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4D0E00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1A0500"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5F2FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB3D9FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF80C0FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4DA7FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0074E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF005AB3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF004180"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00274D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000D1A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE9FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6BCF6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF08FF0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA62EA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE435E4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9D159D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF700F70"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF430943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF160316"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF007F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE5F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB3D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF80BF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF4DA5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE60072"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB30059"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF80003F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4D0026"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1A000D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,15 +668,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -272,10 +685,81 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="68" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="67" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="70" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="77" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="78" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="79" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="81" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="88" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="89" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="90" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="87" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -285,16 +769,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF1A0000"/>
-      <color rgb="FF4D0000"/>
-      <color rgb="FF800000"/>
-      <color rgb="FFB30000"/>
-      <color rgb="FFE60000"/>
-      <color rgb="FFFF1A1A"/>
-      <color rgb="FFFF4D4D"/>
-      <color rgb="FFFF8080"/>
-      <color rgb="FFFFE5E5"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF1A000D"/>
+      <color rgb="FF4D0026"/>
+      <color rgb="FF80003F"/>
+      <color rgb="FFB30059"/>
+      <color rgb="FFE60072"/>
+      <color rgb="FFFF4DA5"/>
+      <color rgb="FFFF80BF"/>
+      <color rgb="FFFFB3D9"/>
+      <color rgb="FFFFE5F2"/>
+      <color rgb="FFFF007F"/>
     </mruColors>
   </colors>
   <extLst>
@@ -592,56 +1076,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
       </c>
       <c r="G1" t="s">
         <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
         <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -650,417 +1134,377 @@
       </c>
       <c r="B2" s="2" t="str">
         <f>$A2&amp;" "&amp;B$1</f>
-        <v>cinza esbranquiçado</v>
+        <v>cinza quase branco</v>
       </c>
       <c r="C2" s="3" t="str">
-        <f t="shared" ref="C2:J11" si="0">$A2&amp;" "&amp;C$1</f>
+        <f t="shared" ref="C2:J10" si="0">$A2&amp;" "&amp;C$1</f>
         <v>cinza desbotado</v>
       </c>
       <c r="D2" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>cinza muito claro</v>
+        <v>cinza bem claro</v>
       </c>
       <c r="E2" s="5" t="str">
         <f t="shared" si="0"/>
         <v>cinza claro</v>
       </c>
-      <c r="F2" s="6" t="str">
+      <c r="F2" s="49" t="str">
         <f t="shared" si="0"/>
         <v>cinza médio</v>
       </c>
-      <c r="G2" s="7" t="str">
+      <c r="G2" s="55" t="str">
+        <f t="shared" si="0"/>
+        <v>cinza meio escuro</v>
+      </c>
+      <c r="H2" s="6" t="str">
         <f t="shared" si="0"/>
         <v>cinza escuro</v>
       </c>
-      <c r="H2" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>cinza muito escuro</v>
-      </c>
-      <c r="I2" s="11" t="str">
+      <c r="I2" s="9" t="str">
         <f t="shared" si="0"/>
         <v>cinza bem escuro</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>20</v>
+      <c r="J2" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>cinza quase preto</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="str">
-        <f t="shared" ref="B3:B11" si="1">$A3&amp;" "&amp;B$1</f>
-        <v>vermelho esbranquiçado</v>
-      </c>
-      <c r="C3" s="15" t="str">
+      <c r="B3" s="12" t="str">
+        <f t="shared" ref="B3:B10" si="1">$A3&amp;" "&amp;B$1</f>
+        <v>vermelho quase branco</v>
+      </c>
+      <c r="C3" s="13" t="str">
         <f t="shared" si="0"/>
         <v>vermelho desbotado</v>
       </c>
-      <c r="D3" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>vermelho muito claro</v>
-      </c>
-      <c r="E3" s="17" t="str">
+      <c r="D3" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>vermelho bem claro</v>
+      </c>
+      <c r="E3" s="15" t="str">
         <f t="shared" si="0"/>
         <v>vermelho claro</v>
       </c>
-      <c r="F3" s="18" t="str">
+      <c r="F3" s="50" t="str">
         <f t="shared" si="0"/>
         <v>vermelho médio</v>
       </c>
-      <c r="G3" s="19" t="str">
+      <c r="G3" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>vermelho meio escuro</v>
+      </c>
+      <c r="H3" s="16" t="str">
         <f t="shared" si="0"/>
         <v>vermelho escuro</v>
       </c>
-      <c r="H3" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>vermelho muito escuro</v>
-      </c>
-      <c r="I3" s="12" t="str">
+      <c r="I3" s="10" t="str">
         <f t="shared" si="0"/>
         <v>vermelho bem escuro</v>
       </c>
-      <c r="J3" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>vermelho super escuro</v>
+      <c r="J3" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>vermelho quase preto</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B4" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>laranja esbranquiçado</v>
-      </c>
-      <c r="C4" t="str">
+        <v>laranja quase branco</v>
+      </c>
+      <c r="C4" s="45" t="str">
         <f t="shared" si="0"/>
         <v>laranja desbotado</v>
       </c>
-      <c r="D4" t="str">
-        <f t="shared" si="0"/>
-        <v>laranja muito claro</v>
-      </c>
-      <c r="E4" t="str">
+      <c r="D4" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>laranja bem claro</v>
+      </c>
+      <c r="E4" s="47" t="str">
         <f t="shared" si="0"/>
         <v>laranja claro</v>
       </c>
-      <c r="F4" t="str">
+      <c r="F4" s="48" t="str">
         <f t="shared" si="0"/>
         <v>laranja médio</v>
       </c>
-      <c r="G4" t="str">
+      <c r="G4" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>laranja meio escuro</v>
+      </c>
+      <c r="H4" s="58" t="str">
         <f t="shared" si="0"/>
         <v>laranja escuro</v>
       </c>
-      <c r="H4" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>laranja muito escuro</v>
-      </c>
-      <c r="I4" s="8" t="str">
+      <c r="I4" s="59" t="str">
         <f t="shared" si="0"/>
         <v>laranja bem escuro</v>
       </c>
-      <c r="J4" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>laranja super escuro</v>
+      <c r="J4" s="60" t="str">
+        <f t="shared" si="0"/>
+        <v>laranja quase preto</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B5" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>amarelo esbranquiçado</v>
-      </c>
-      <c r="C5" t="str">
+        <v>amarelo quase branco</v>
+      </c>
+      <c r="C5" s="28" t="str">
         <f t="shared" si="0"/>
         <v>amarelo desbotado</v>
       </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>amarelo muito claro</v>
-      </c>
-      <c r="E5" t="str">
+      <c r="D5" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>amarelo bem claro</v>
+      </c>
+      <c r="E5" s="29" t="str">
         <f t="shared" si="0"/>
         <v>amarelo claro</v>
       </c>
-      <c r="F5" t="str">
+      <c r="F5" s="31" t="str">
         <f t="shared" si="0"/>
         <v>amarelo médio</v>
       </c>
-      <c r="G5" t="str">
+      <c r="G5" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>amarelo meio escuro</v>
+      </c>
+      <c r="H5" s="32" t="str">
         <f t="shared" si="0"/>
         <v>amarelo escuro</v>
       </c>
-      <c r="H5" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>amarelo muito escuro</v>
-      </c>
-      <c r="I5" s="8" t="str">
+      <c r="I5" s="33" t="str">
         <f t="shared" si="0"/>
         <v>amarelo bem escuro</v>
       </c>
-      <c r="J5" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>amarelo super escuro</v>
+      <c r="J5" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>amarelo quase preto</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B6" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>marrom esbranquiçado</v>
-      </c>
-      <c r="C6" t="str">
+        <v>marrom quase branco</v>
+      </c>
+      <c r="C6" s="36" t="str">
         <f t="shared" si="0"/>
         <v>marrom desbotado</v>
       </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>marrom muito claro</v>
-      </c>
-      <c r="E6" t="str">
+      <c r="D6" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>marrom bem claro</v>
+      </c>
+      <c r="E6" s="38" t="str">
         <f t="shared" si="0"/>
         <v>marrom claro</v>
       </c>
-      <c r="F6" t="str">
+      <c r="F6" s="51" t="str">
         <f t="shared" si="0"/>
         <v>marrom médio</v>
       </c>
-      <c r="G6" t="str">
+      <c r="G6" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>marrom meio escuro</v>
+      </c>
+      <c r="H6" s="39" t="str">
         <f t="shared" si="0"/>
         <v>marrom escuro</v>
       </c>
-      <c r="H6" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>marrom muito escuro</v>
-      </c>
-      <c r="I6" s="8" t="str">
+      <c r="I6" s="40" t="str">
         <f t="shared" si="0"/>
         <v>marrom bem escuro</v>
       </c>
-      <c r="J6" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>marrom super escuro</v>
+      <c r="J6" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>marrom quase preto</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B7" t="str">
+      <c r="B7" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>verde esbranquiçado</v>
-      </c>
-      <c r="C7" t="str">
+        <v>verde quase branco</v>
+      </c>
+      <c r="C7" s="20" t="str">
         <f t="shared" si="0"/>
         <v>verde desbotado</v>
       </c>
-      <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>verde muito claro</v>
-      </c>
-      <c r="E7" t="str">
+      <c r="D7" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>verde bem claro</v>
+      </c>
+      <c r="E7" s="22" t="str">
         <f t="shared" si="0"/>
         <v>verde claro</v>
       </c>
-      <c r="F7" t="str">
+      <c r="F7" s="23" t="str">
         <f t="shared" si="0"/>
         <v>verde médio</v>
       </c>
-      <c r="G7" t="str">
+      <c r="G7" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>verde meio escuro</v>
+      </c>
+      <c r="H7" s="18" t="str">
         <f t="shared" si="0"/>
         <v>verde escuro</v>
       </c>
-      <c r="H7" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>verde muito escuro</v>
-      </c>
-      <c r="I7" s="8" t="str">
+      <c r="I7" s="24" t="str">
         <f t="shared" si="0"/>
         <v>verde bem escuro</v>
       </c>
-      <c r="J7" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>verde super escuro</v>
+      <c r="J7" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>verde quase preto</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B8" s="62" t="str">
         <f t="shared" si="1"/>
-        <v>azul esbranquiçado</v>
-      </c>
-      <c r="C8" t="str">
+        <v>azul quase branco</v>
+      </c>
+      <c r="C8" s="63" t="str">
         <f t="shared" si="0"/>
         <v>azul desbotado</v>
       </c>
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>azul muito claro</v>
-      </c>
-      <c r="E8" t="str">
+      <c r="D8" s="64" t="str">
+        <f t="shared" si="0"/>
+        <v>azul bem claro</v>
+      </c>
+      <c r="E8" s="65" t="str">
         <f t="shared" si="0"/>
         <v>azul claro</v>
       </c>
-      <c r="F8" t="str">
+      <c r="F8" s="66" t="str">
         <f t="shared" si="0"/>
         <v>azul médio</v>
       </c>
-      <c r="G8" t="str">
+      <c r="G8" s="69" t="str">
+        <f t="shared" si="0"/>
+        <v>azul meio escuro</v>
+      </c>
+      <c r="H8" s="67" t="str">
         <f t="shared" si="0"/>
         <v>azul escuro</v>
       </c>
-      <c r="H8" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>azul muito escuro</v>
-      </c>
-      <c r="I8" s="8" t="str">
+      <c r="I8" s="68" t="str">
         <f t="shared" si="0"/>
         <v>azul bem escuro</v>
       </c>
-      <c r="J8" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>azul super escuro</v>
+      <c r="J8" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>azul quase preto</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="str">
-        <f t="shared" si="1"/>
-        <v>rosa esbranquiçado</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>rosa desbotado</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>rosa muito claro</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>rosa claro</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="0"/>
-        <v>rosa médio</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="0"/>
-        <v>rosa escuro</v>
-      </c>
-      <c r="H9" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>rosa muito escuro</v>
-      </c>
-      <c r="I9" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>rosa bem escuro</v>
-      </c>
-      <c r="J9" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>rosa super escuro</v>
+      <c r="A9" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="82" t="str">
+        <f>$A9&amp;" "&amp;B$1</f>
+        <v>rosa choque quase branco</v>
+      </c>
+      <c r="C9" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>rosa choque desbotado</v>
+      </c>
+      <c r="D9" s="84" t="str">
+        <f t="shared" si="0"/>
+        <v>rosa choque bem claro</v>
+      </c>
+      <c r="E9" s="85" t="str">
+        <f t="shared" si="0"/>
+        <v>rosa choque claro</v>
+      </c>
+      <c r="F9" s="86" t="str">
+        <f t="shared" si="0"/>
+        <v>rosa choque médio</v>
+      </c>
+      <c r="G9" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>rosa choque meio escuro</v>
+      </c>
+      <c r="H9" s="87" t="str">
+        <f t="shared" si="0"/>
+        <v>rosa choque escuro</v>
+      </c>
+      <c r="I9" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>rosa choque bem escuro</v>
+      </c>
+      <c r="J9" s="89" t="str">
+        <f t="shared" si="0"/>
+        <v>rosa choque quase preto</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="str">
+      <c r="A10" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="72" t="str">
         <f t="shared" si="1"/>
-        <v>roxo esbranquiçado</v>
-      </c>
-      <c r="C10" t="str">
+        <v>roxo quase branco</v>
+      </c>
+      <c r="C10" s="73" t="str">
         <f t="shared" si="0"/>
         <v>roxo desbotado</v>
       </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>roxo muito claro</v>
-      </c>
-      <c r="E10" t="str">
+      <c r="D10" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>roxo bem claro</v>
+      </c>
+      <c r="E10" s="75" t="str">
         <f t="shared" si="0"/>
         <v>roxo claro</v>
       </c>
-      <c r="F10" t="str">
+      <c r="F10" s="76" t="str">
         <f t="shared" si="0"/>
         <v>roxo médio</v>
       </c>
-      <c r="G10" t="str">
+      <c r="G10" s="77" t="str">
+        <f t="shared" si="0"/>
+        <v>roxo meio escuro</v>
+      </c>
+      <c r="H10" s="78" t="str">
         <f t="shared" si="0"/>
         <v>roxo escuro</v>
       </c>
-      <c r="H10" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>roxo muito escuro</v>
-      </c>
-      <c r="I10" s="8" t="str">
+      <c r="I10" s="79" t="str">
         <f t="shared" si="0"/>
         <v>roxo bem escuro</v>
       </c>
-      <c r="J10" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>roxo super escuro</v>
+      <c r="J10" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>roxo quase preto</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="str">
-        <f t="shared" si="1"/>
-        <v>branco esbranquiçado</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>branco desbotado</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v>branco muito claro</v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>branco claro</v>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" si="0"/>
-        <v>branco médio</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="0"/>
-        <v>branco escuro</v>
-      </c>
-      <c r="H11" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>branco muito escuro</v>
-      </c>
-      <c r="I11" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>branco bem escuro</v>
-      </c>
-      <c r="J11" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>branco super escuro</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>19</v>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1"/>
+    <hyperlink ref="A12" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>

--- a/recursos/cores.xlsx
+++ b/recursos/cores.xlsx
@@ -66,33 +66,26 @@
     <t>meio escuro</t>
   </si>
   <si>
-    <t>quase preto</t>
-  </si>
-  <si>
     <t>bem claro</t>
   </si>
   <si>
-    <t>rosa choque</t>
-  </si>
-  <si>
-    <t>quase branco</t>
+    <t>magenta</t>
+  </si>
+  <si>
+    <t>claríssimo</t>
+  </si>
+  <si>
+    <t>escuríssimo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -106,7 +99,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFE5F2FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FFE5F2FF"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -666,100 +697,102 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="68" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="67" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="70" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="77" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="78" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="79" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="81" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="88" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="89" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="90" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="87" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="54" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="64" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="66" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="67" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="68" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="70" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="82" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="83" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="84" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="85" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="86" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="87" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="88" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="89" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="90" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="72" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="73" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="74" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="75" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="76" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="77" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="78" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="79" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="81" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -769,6 +802,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FF00"/>
       <color rgb="FF1A000D"/>
       <color rgb="FF4D0026"/>
       <color rgb="FF80003F"/>
@@ -778,7 +812,6 @@
       <color rgb="FFFF80BF"/>
       <color rgb="FFFFB3D9"/>
       <color rgb="FFFFE5F2"/>
-      <color rgb="FFFF007F"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1078,427 +1111,426 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="84" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>$A2&amp;" "&amp;B$1</f>
-        <v>cinza quase branco</v>
+        <v>cinza claríssimo</v>
       </c>
       <c r="C2" s="3" t="str">
-        <f t="shared" ref="C2:J10" si="0">$A2&amp;" "&amp;C$1</f>
+        <f>$A2&amp;" "&amp;C$1</f>
         <v>cinza desbotado</v>
       </c>
       <c r="D2" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>$A2&amp;" "&amp;D$1</f>
         <v>cinza bem claro</v>
       </c>
       <c r="E2" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>$A2&amp;" "&amp;E$1</f>
         <v>cinza claro</v>
       </c>
-      <c r="F2" s="49" t="str">
-        <f t="shared" si="0"/>
+      <c r="F2" s="6" t="str">
+        <f>$A2&amp;" "&amp;F$1</f>
         <v>cinza médio</v>
       </c>
-      <c r="G2" s="55" t="str">
-        <f t="shared" si="0"/>
+      <c r="G2" s="7" t="str">
+        <f>$A2&amp;" "&amp;G$1</f>
         <v>cinza meio escuro</v>
       </c>
-      <c r="H2" s="6" t="str">
-        <f t="shared" si="0"/>
+      <c r="H2" s="8" t="str">
+        <f>$A2&amp;" "&amp;H$1</f>
         <v>cinza escuro</v>
       </c>
       <c r="I2" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>$A2&amp;" "&amp;I$1</f>
         <v>cinza bem escuro</v>
       </c>
-      <c r="J2" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>cinza quase preto</v>
+      <c r="J2" s="10" t="str">
+        <f>$A2&amp;" "&amp;J$1</f>
+        <v>cinza escuríssimo</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="str">
-        <f t="shared" ref="B3:B10" si="1">$A3&amp;" "&amp;B$1</f>
-        <v>vermelho quase branco</v>
-      </c>
-      <c r="C3" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="B3" s="11" t="str">
+        <f>$A3&amp;" "&amp;B$1</f>
+        <v>vermelho claríssimo</v>
+      </c>
+      <c r="C3" s="12" t="str">
+        <f>$A3&amp;" "&amp;C$1</f>
         <v>vermelho desbotado</v>
       </c>
-      <c r="D3" s="14" t="str">
-        <f t="shared" si="0"/>
+      <c r="D3" s="13" t="str">
+        <f>$A3&amp;" "&amp;D$1</f>
         <v>vermelho bem claro</v>
       </c>
-      <c r="E3" s="15" t="str">
-        <f t="shared" si="0"/>
+      <c r="E3" s="14" t="str">
+        <f>$A3&amp;" "&amp;E$1</f>
         <v>vermelho claro</v>
       </c>
-      <c r="F3" s="50" t="str">
-        <f t="shared" si="0"/>
+      <c r="F3" s="15" t="str">
+        <f>$A3&amp;" "&amp;F$1</f>
         <v>vermelho médio</v>
       </c>
-      <c r="G3" s="56" t="str">
-        <f t="shared" si="0"/>
+      <c r="G3" s="16" t="str">
+        <f>$A3&amp;" "&amp;G$1</f>
         <v>vermelho meio escuro</v>
       </c>
-      <c r="H3" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="H3" s="17" t="str">
+        <f>$A3&amp;" "&amp;H$1</f>
         <v>vermelho escuro</v>
       </c>
-      <c r="I3" s="10" t="str">
-        <f t="shared" si="0"/>
+      <c r="I3" s="18" t="str">
+        <f>$A3&amp;" "&amp;I$1</f>
         <v>vermelho bem escuro</v>
       </c>
-      <c r="J3" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>vermelho quase preto</v>
+      <c r="J3" s="19" t="str">
+        <f>$A3&amp;" "&amp;J$1</f>
+        <v>vermelho escuríssimo</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="44" t="str">
-        <f t="shared" si="1"/>
-        <v>laranja quase branco</v>
-      </c>
-      <c r="C4" s="45" t="str">
-        <f t="shared" si="0"/>
+      <c r="B4" s="20" t="str">
+        <f>$A4&amp;" "&amp;B$1</f>
+        <v>laranja claríssimo</v>
+      </c>
+      <c r="C4" s="21" t="str">
+        <f>$A4&amp;" "&amp;C$1</f>
         <v>laranja desbotado</v>
       </c>
-      <c r="D4" s="46" t="str">
-        <f t="shared" si="0"/>
+      <c r="D4" s="22" t="str">
+        <f>$A4&amp;" "&amp;D$1</f>
         <v>laranja bem claro</v>
       </c>
-      <c r="E4" s="47" t="str">
-        <f t="shared" si="0"/>
+      <c r="E4" s="23" t="str">
+        <f>$A4&amp;" "&amp;E$1</f>
         <v>laranja claro</v>
       </c>
-      <c r="F4" s="48" t="str">
-        <f t="shared" si="0"/>
+      <c r="F4" s="24" t="str">
+        <f>$A4&amp;" "&amp;F$1</f>
         <v>laranja médio</v>
       </c>
-      <c r="G4" s="57" t="str">
-        <f t="shared" si="0"/>
+      <c r="G4" s="25" t="str">
+        <f>$A4&amp;" "&amp;G$1</f>
         <v>laranja meio escuro</v>
       </c>
-      <c r="H4" s="58" t="str">
-        <f t="shared" si="0"/>
+      <c r="H4" s="26" t="str">
+        <f>$A4&amp;" "&amp;H$1</f>
         <v>laranja escuro</v>
       </c>
-      <c r="I4" s="59" t="str">
-        <f t="shared" si="0"/>
+      <c r="I4" s="27" t="str">
+        <f>$A4&amp;" "&amp;I$1</f>
         <v>laranja bem escuro</v>
       </c>
-      <c r="J4" s="60" t="str">
-        <f t="shared" si="0"/>
-        <v>laranja quase preto</v>
+      <c r="J4" s="28" t="str">
+        <f>$A4&amp;" "&amp;J$1</f>
+        <v>laranja escuríssimo</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>amarelo quase branco</v>
-      </c>
-      <c r="C5" s="28" t="str">
-        <f t="shared" si="0"/>
+      <c r="B5" s="29" t="str">
+        <f>$A5&amp;" "&amp;B$1</f>
+        <v>amarelo claríssimo</v>
+      </c>
+      <c r="C5" s="30" t="str">
+        <f>$A5&amp;" "&amp;C$1</f>
         <v>amarelo desbotado</v>
       </c>
-      <c r="D5" s="30" t="str">
-        <f t="shared" si="0"/>
+      <c r="D5" s="31" t="str">
+        <f>$A5&amp;" "&amp;D$1</f>
         <v>amarelo bem claro</v>
       </c>
-      <c r="E5" s="29" t="str">
-        <f t="shared" si="0"/>
+      <c r="E5" s="32" t="str">
+        <f>$A5&amp;" "&amp;E$1</f>
         <v>amarelo claro</v>
       </c>
-      <c r="F5" s="31" t="str">
-        <f t="shared" si="0"/>
+      <c r="F5" s="33" t="str">
+        <f>$A5&amp;" "&amp;F$1</f>
         <v>amarelo médio</v>
       </c>
-      <c r="G5" s="52" t="str">
-        <f t="shared" si="0"/>
+      <c r="G5" s="34" t="str">
+        <f>$A5&amp;" "&amp;G$1</f>
         <v>amarelo meio escuro</v>
       </c>
-      <c r="H5" s="32" t="str">
-        <f t="shared" si="0"/>
+      <c r="H5" s="35" t="str">
+        <f>$A5&amp;" "&amp;H$1</f>
         <v>amarelo escuro</v>
       </c>
-      <c r="I5" s="33" t="str">
-        <f t="shared" si="0"/>
+      <c r="I5" s="36" t="str">
+        <f>$A5&amp;" "&amp;I$1</f>
         <v>amarelo bem escuro</v>
       </c>
-      <c r="J5" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>amarelo quase preto</v>
+      <c r="J5" s="37" t="str">
+        <f>$A5&amp;" "&amp;J$1</f>
+        <v>amarelo escuríssimo</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="35" t="str">
-        <f t="shared" si="1"/>
-        <v>marrom quase branco</v>
-      </c>
-      <c r="C6" s="36" t="str">
-        <f t="shared" si="0"/>
+      <c r="B6" s="38" t="str">
+        <f>$A6&amp;" "&amp;B$1</f>
+        <v>marrom claríssimo</v>
+      </c>
+      <c r="C6" s="39" t="str">
+        <f>$A6&amp;" "&amp;C$1</f>
         <v>marrom desbotado</v>
       </c>
-      <c r="D6" s="37" t="str">
-        <f t="shared" si="0"/>
+      <c r="D6" s="40" t="str">
+        <f>$A6&amp;" "&amp;D$1</f>
         <v>marrom bem claro</v>
       </c>
-      <c r="E6" s="38" t="str">
-        <f t="shared" si="0"/>
+      <c r="E6" s="41" t="str">
+        <f>$A6&amp;" "&amp;E$1</f>
         <v>marrom claro</v>
       </c>
-      <c r="F6" s="51" t="str">
-        <f t="shared" si="0"/>
+      <c r="F6" s="42" t="str">
+        <f>$A6&amp;" "&amp;F$1</f>
         <v>marrom médio</v>
       </c>
-      <c r="G6" s="53" t="str">
-        <f t="shared" si="0"/>
+      <c r="G6" s="43" t="str">
+        <f>$A6&amp;" "&amp;G$1</f>
         <v>marrom meio escuro</v>
       </c>
-      <c r="H6" s="39" t="str">
-        <f t="shared" si="0"/>
+      <c r="H6" s="44" t="str">
+        <f>$A6&amp;" "&amp;H$1</f>
         <v>marrom escuro</v>
       </c>
-      <c r="I6" s="40" t="str">
-        <f t="shared" si="0"/>
+      <c r="I6" s="45" t="str">
+        <f>$A6&amp;" "&amp;I$1</f>
         <v>marrom bem escuro</v>
       </c>
-      <c r="J6" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v>marrom quase preto</v>
+      <c r="J6" s="46" t="str">
+        <f>$A6&amp;" "&amp;J$1</f>
+        <v>marrom escuríssimo</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>verde quase branco</v>
-      </c>
-      <c r="C7" s="20" t="str">
-        <f t="shared" si="0"/>
+      <c r="B7" s="48" t="str">
+        <f>$A7&amp;" "&amp;B$1</f>
+        <v>verde claríssimo</v>
+      </c>
+      <c r="C7" s="49" t="str">
+        <f>$A7&amp;" "&amp;C$1</f>
         <v>verde desbotado</v>
       </c>
-      <c r="D7" s="21" t="str">
-        <f t="shared" si="0"/>
+      <c r="D7" s="50" t="str">
+        <f>$A7&amp;" "&amp;D$1</f>
         <v>verde bem claro</v>
       </c>
-      <c r="E7" s="22" t="str">
-        <f t="shared" si="0"/>
+      <c r="E7" s="51" t="str">
+        <f>$A7&amp;" "&amp;E$1</f>
         <v>verde claro</v>
       </c>
-      <c r="F7" s="23" t="str">
-        <f t="shared" si="0"/>
+      <c r="F7" s="52" t="str">
+        <f>$A7&amp;" "&amp;F$1</f>
         <v>verde médio</v>
       </c>
-      <c r="G7" s="54" t="str">
-        <f t="shared" si="0"/>
+      <c r="G7" s="53" t="str">
+        <f>$A7&amp;" "&amp;G$1</f>
         <v>verde meio escuro</v>
       </c>
-      <c r="H7" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="H7" s="47" t="str">
+        <f>$A7&amp;" "&amp;H$1</f>
         <v>verde escuro</v>
       </c>
-      <c r="I7" s="24" t="str">
-        <f t="shared" si="0"/>
+      <c r="I7" s="54" t="str">
+        <f>$A7&amp;" "&amp;I$1</f>
         <v>verde bem escuro</v>
       </c>
-      <c r="J7" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>verde quase preto</v>
+      <c r="J7" s="55" t="str">
+        <f>$A7&amp;" "&amp;J$1</f>
+        <v>verde escuríssimo</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="61" t="s">
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="62" t="str">
-        <f t="shared" si="1"/>
-        <v>azul quase branco</v>
-      </c>
-      <c r="C8" s="63" t="str">
-        <f t="shared" si="0"/>
+      <c r="B8" s="56" t="str">
+        <f>$A8&amp;" "&amp;B$1</f>
+        <v>azul claríssimo</v>
+      </c>
+      <c r="C8" s="57" t="str">
+        <f>$A8&amp;" "&amp;C$1</f>
         <v>azul desbotado</v>
       </c>
-      <c r="D8" s="64" t="str">
-        <f t="shared" si="0"/>
+      <c r="D8" s="58" t="str">
+        <f>$A8&amp;" "&amp;D$1</f>
         <v>azul bem claro</v>
       </c>
-      <c r="E8" s="65" t="str">
-        <f t="shared" si="0"/>
+      <c r="E8" s="59" t="str">
+        <f>$A8&amp;" "&amp;E$1</f>
         <v>azul claro</v>
       </c>
-      <c r="F8" s="66" t="str">
-        <f t="shared" si="0"/>
+      <c r="F8" s="60" t="str">
+        <f>$A8&amp;" "&amp;F$1</f>
         <v>azul médio</v>
       </c>
-      <c r="G8" s="69" t="str">
-        <f t="shared" si="0"/>
+      <c r="G8" s="61" t="str">
+        <f>$A8&amp;" "&amp;G$1</f>
         <v>azul meio escuro</v>
       </c>
-      <c r="H8" s="67" t="str">
-        <f t="shared" si="0"/>
+      <c r="H8" s="62" t="str">
+        <f>$A8&amp;" "&amp;H$1</f>
         <v>azul escuro</v>
       </c>
-      <c r="I8" s="68" t="str">
-        <f t="shared" si="0"/>
+      <c r="I8" s="63" t="str">
+        <f>$A8&amp;" "&amp;I$1</f>
         <v>azul bem escuro</v>
       </c>
-      <c r="J8" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>azul quase preto</v>
+      <c r="J8" s="64" t="str">
+        <f>$A8&amp;" "&amp;J$1</f>
+        <v>azul escuríssimo</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="82" t="str">
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="91" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="65" t="str">
         <f>$A9&amp;" "&amp;B$1</f>
-        <v>rosa choque quase branco</v>
-      </c>
-      <c r="C9" s="83" t="str">
-        <f t="shared" si="0"/>
-        <v>rosa choque desbotado</v>
-      </c>
-      <c r="D9" s="84" t="str">
-        <f t="shared" si="0"/>
-        <v>rosa choque bem claro</v>
-      </c>
-      <c r="E9" s="85" t="str">
-        <f t="shared" si="0"/>
-        <v>rosa choque claro</v>
-      </c>
-      <c r="F9" s="86" t="str">
-        <f t="shared" si="0"/>
-        <v>rosa choque médio</v>
-      </c>
-      <c r="G9" s="90" t="str">
-        <f t="shared" si="0"/>
-        <v>rosa choque meio escuro</v>
-      </c>
-      <c r="H9" s="87" t="str">
-        <f t="shared" si="0"/>
-        <v>rosa choque escuro</v>
-      </c>
-      <c r="I9" s="88" t="str">
-        <f t="shared" si="0"/>
-        <v>rosa choque bem escuro</v>
-      </c>
-      <c r="J9" s="89" t="str">
-        <f t="shared" si="0"/>
-        <v>rosa choque quase preto</v>
+        <v>magenta claríssimo</v>
+      </c>
+      <c r="C9" s="66" t="str">
+        <f>$A9&amp;" "&amp;C$1</f>
+        <v>magenta desbotado</v>
+      </c>
+      <c r="D9" s="67" t="str">
+        <f>$A9&amp;" "&amp;D$1</f>
+        <v>magenta bem claro</v>
+      </c>
+      <c r="E9" s="68" t="str">
+        <f>$A9&amp;" "&amp;E$1</f>
+        <v>magenta claro</v>
+      </c>
+      <c r="F9" s="69" t="str">
+        <f>$A9&amp;" "&amp;F$1</f>
+        <v>magenta médio</v>
+      </c>
+      <c r="G9" s="70" t="str">
+        <f>$A9&amp;" "&amp;G$1</f>
+        <v>magenta meio escuro</v>
+      </c>
+      <c r="H9" s="71" t="str">
+        <f>$A9&amp;" "&amp;H$1</f>
+        <v>magenta escuro</v>
+      </c>
+      <c r="I9" s="72" t="str">
+        <f>$A9&amp;" "&amp;I$1</f>
+        <v>magenta bem escuro</v>
+      </c>
+      <c r="J9" s="73" t="str">
+        <f>$A9&amp;" "&amp;J$1</f>
+        <v>magenta escuríssimo</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="71" t="s">
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>roxo quase branco</v>
-      </c>
-      <c r="C10" s="73" t="str">
-        <f t="shared" si="0"/>
+      <c r="B10" s="74" t="str">
+        <f>$A10&amp;" "&amp;B$1</f>
+        <v>roxo claríssimo</v>
+      </c>
+      <c r="C10" s="75" t="str">
+        <f>$A10&amp;" "&amp;C$1</f>
         <v>roxo desbotado</v>
       </c>
-      <c r="D10" s="74" t="str">
-        <f t="shared" si="0"/>
+      <c r="D10" s="76" t="str">
+        <f>$A10&amp;" "&amp;D$1</f>
         <v>roxo bem claro</v>
       </c>
-      <c r="E10" s="75" t="str">
-        <f t="shared" si="0"/>
+      <c r="E10" s="77" t="str">
+        <f>$A10&amp;" "&amp;E$1</f>
         <v>roxo claro</v>
       </c>
-      <c r="F10" s="76" t="str">
-        <f t="shared" si="0"/>
+      <c r="F10" s="78" t="str">
+        <f>$A10&amp;" "&amp;F$1</f>
         <v>roxo médio</v>
       </c>
-      <c r="G10" s="77" t="str">
-        <f t="shared" si="0"/>
+      <c r="G10" s="79" t="str">
+        <f>$A10&amp;" "&amp;G$1</f>
         <v>roxo meio escuro</v>
       </c>
-      <c r="H10" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="H10" s="80" t="str">
+        <f>$A10&amp;" "&amp;H$1</f>
         <v>roxo escuro</v>
       </c>
-      <c r="I10" s="79" t="str">
-        <f t="shared" si="0"/>
+      <c r="I10" s="81" t="str">
+        <f>$A10&amp;" "&amp;I$1</f>
         <v>roxo bem escuro</v>
       </c>
-      <c r="J10" s="80" t="str">
-        <f t="shared" si="0"/>
-        <v>roxo quase preto</v>
+      <c r="J10" s="82" t="str">
+        <f>$A10&amp;" "&amp;J$1</f>
+        <v>roxo escuríssimo</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
     </row>
